--- a/data/shifty_legacy.xlsx
+++ b/data/shifty_legacy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Shifts" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fri end N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -163,7 +166,7 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="HH:MM:SS"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -187,9 +190,90 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -215,15 +299,57 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -231,8 +357,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,65 +397,189 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -325,17 +590,17 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="3" width="14.3112244897959"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="19.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="3" width="14.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -463,40 +728,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="5.18367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="5.18367346938776"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="10.0459183673469"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="9.35204081632653"/>
-    <col collapsed="false" hidden="false" max="1023" min="27" style="3" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="14.3112244897959"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="2" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="3" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="3" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="27" style="3" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="14.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,6 +843,9 @@
       <c r="Z1" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="AA1" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
@@ -587,7 +855,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>0.333333333333333</v>
@@ -644,15 +912,18 @@
         <v>0.6875</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>6</v>
@@ -693,7 +964,7 @@
         <v>0.708333333333333</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -714,15 +985,15 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="14.3112244897959"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="3" width="14.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,16 +1042,16 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="3" width="11.2040816326531"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="3" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,10 +1059,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,7 +1075,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>42776</v>

--- a/data/shifty_legacy.xlsx
+++ b/data/shifty_legacy.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">Beast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -728,39 +731,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA9" activeCellId="0" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="4.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="4.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="10.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="9.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="10.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="2" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="10.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="10.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="9.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="9.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="3" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="3" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="3" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="27" style="3" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="3" width="6.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="3" width="6.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="29" style="3" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="14.31"/>
   </cols>
   <sheetData>
@@ -846,6 +851,9 @@
       <c r="AA1" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="AB1" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
@@ -855,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>0.333333333333333</v>
@@ -912,18 +920,21 @@
         <v>0.6875</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>6</v>
@@ -964,7 +975,7 @@
         <v>0.708333333333333</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1004,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,10 +1059,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="3" width="11.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="3" width="11.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,10 +1070,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,7 +1086,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>42776</v>
